--- a/src/main/webapp/importTpl/userCostImportTpl.xlsx
+++ b/src/main/webapp/importTpl/userCostImportTpl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>徐诚</t>
   </si>
@@ -61,13 +61,17 @@
   </si>
   <si>
     <t>社保</t>
+  </si>
+  <si>
+    <t>数据只取A-G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +84,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -103,11 +114,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -412,12 +424,13 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -474,16 +487,19 @@
       <c r="G2">
         <v>1000</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="K2">
-        <f>D2*$K$1</f>
+        <f t="shared" ref="K2:K7" si="0">D2*$K$1</f>
         <v>3700</v>
       </c>
       <c r="L2">
-        <f>D2*$L$1</f>
+        <f t="shared" ref="L2:L7" si="1">D2*$L$1</f>
         <v>700.00000000000011</v>
       </c>
       <c r="M2">
-        <f>D2*$M$1</f>
+        <f t="shared" ref="M2:M7" si="2">D2*$M$1</f>
         <v>1000</v>
       </c>
     </row>
@@ -510,15 +526,15 @@
         <v>800</v>
       </c>
       <c r="K3">
-        <f>D3*$K$1</f>
+        <f t="shared" si="0"/>
         <v>2960</v>
       </c>
       <c r="L3">
-        <f>D3*$L$1</f>
+        <f t="shared" si="1"/>
         <v>560</v>
       </c>
       <c r="M3">
-        <f>D3*$M$1</f>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
     </row>
@@ -545,15 +561,15 @@
         <v>1200</v>
       </c>
       <c r="K4">
-        <f>D4*$K$1</f>
+        <f t="shared" si="0"/>
         <v>4440</v>
       </c>
       <c r="L4">
-        <f>D4*$L$1</f>
+        <f t="shared" si="1"/>
         <v>840.00000000000011</v>
       </c>
       <c r="M4">
-        <f>D4*$M$1</f>
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
     </row>
@@ -580,15 +596,15 @@
         <v>1100</v>
       </c>
       <c r="K5">
-        <f>D5*$K$1</f>
+        <f t="shared" si="0"/>
         <v>4070</v>
       </c>
       <c r="L5">
-        <f>D5*$L$1</f>
+        <f t="shared" si="1"/>
         <v>770.00000000000011</v>
       </c>
       <c r="M5">
-        <f>D5*$M$1</f>
+        <f t="shared" si="2"/>
         <v>1100</v>
       </c>
     </row>
@@ -615,15 +631,15 @@
         <v>900</v>
       </c>
       <c r="K6">
-        <f>D6*$K$1</f>
+        <f t="shared" si="0"/>
         <v>3330</v>
       </c>
       <c r="L6">
-        <f>D6*$L$1</f>
+        <f t="shared" si="1"/>
         <v>630.00000000000011</v>
       </c>
       <c r="M6">
-        <f>D6*$M$1</f>
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
     </row>
@@ -650,15 +666,15 @@
         <v>1500</v>
       </c>
       <c r="K7">
-        <f>D7*$K$1</f>
+        <f t="shared" si="0"/>
         <v>5550</v>
       </c>
       <c r="L7">
-        <f>D7*$L$1</f>
+        <f t="shared" si="1"/>
         <v>1050</v>
       </c>
       <c r="M7">
-        <f>D7*$M$1</f>
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
     </row>

--- a/src/main/webapp/importTpl/userCostImportTpl.xlsx
+++ b/src/main/webapp/importTpl/userCostImportTpl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>徐诚</t>
   </si>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>数据只取A-G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属年月可以是日期格式，或YYYYMM数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -433,7 +437,7 @@
     <col min="10" max="10" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -455,17 +459,8 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="K1">
-        <v>0.37</v>
-      </c>
-      <c r="L1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M1">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -490,20 +485,8 @@
       <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2">
-        <f t="shared" ref="K2:K7" si="0">D2*$K$1</f>
-        <v>3700</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L7" si="1">D2*$L$1</f>
-        <v>700.00000000000011</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ref="M2:M7" si="2">D2*$M$1</f>
-        <v>1000</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -525,20 +508,11 @@
       <c r="G3">
         <v>800</v>
       </c>
-      <c r="K3">
-        <f t="shared" si="0"/>
-        <v>2960</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="1"/>
-        <v>560</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="2"/>
-        <v>800</v>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -560,20 +534,8 @@
       <c r="G4">
         <v>1200</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>4440</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>840.00000000000011</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="2"/>
-        <v>1200</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -595,20 +557,8 @@
       <c r="G5">
         <v>1100</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>4070</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>770.00000000000011</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="2"/>
-        <v>1100</v>
-      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -630,20 +580,8 @@
       <c r="G6">
         <v>900</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>3330</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>630.00000000000011</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="2"/>
-        <v>900</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -663,18 +601,6 @@
         <v>1050</v>
       </c>
       <c r="G7">
-        <v>1500</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>5550</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>1050</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
     </row>
